--- a/data/input/capacity_mix.xlsx
+++ b/data/input/capacity_mix.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\TimeSeriesAggregation\data\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29217FF4-B78C-4BA1-A3CA-6ABC1B0898A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1845" yWindow="1785" windowWidth="28125" windowHeight="18945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,127 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="38">
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>I_reg</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>H2store</t>
+  </si>
+  <si>
+    <t>DE_N</t>
+  </si>
+  <si>
+    <t>DE_S</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>SE_S</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>SE_NO_N</t>
+  </si>
+  <si>
+    <t>PVPA2</t>
+  </si>
+  <si>
+    <t>WOFF5</t>
+  </si>
+  <si>
+    <t>NO_S</t>
+  </si>
+  <si>
+    <t>PVR2</t>
+  </si>
+  <si>
+    <t>bat_cap</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>WG_peak</t>
+  </si>
+  <si>
+    <t>PVPA1</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>electrolyser</t>
+  </si>
+  <si>
+    <t>WG</t>
+  </si>
+  <si>
+    <t>WONA3</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>WONA5</t>
+  </si>
+  <si>
+    <t>WONA4</t>
+  </si>
+  <si>
+    <t>WONA2</t>
+  </si>
+  <si>
+    <t>WOFF2</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>WOFF3</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>WOFF4</t>
+  </si>
+  <si>
+    <t>H_CHP</t>
+  </si>
+  <si>
+    <t>B_CHP</t>
+  </si>
+  <si>
+    <t>W_CHP</t>
+  </si>
+  <si>
+    <t>allyears</t>
+  </si>
+  <si>
+    <t>ref999</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +455,1256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1048.3499999999999</v>
+      </c>
+      <c r="D3">
+        <v>1048.3499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>976.10299999999995</v>
+      </c>
+      <c r="D4">
+        <v>976.10299999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>426.779</v>
+      </c>
+      <c r="D5">
+        <v>426.779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>308.05500000000001</v>
+      </c>
+      <c r="D6">
+        <v>308.05500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>261.44499999999999</v>
+      </c>
+      <c r="D7">
+        <v>261.44499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>243.47499999999999</v>
+      </c>
+      <c r="D8">
+        <v>243.47499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>199.22399999999999</v>
+      </c>
+      <c r="D9">
+        <v>199.22399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>184.44</v>
+      </c>
+      <c r="D10">
+        <v>184.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>170.00899999999999</v>
+      </c>
+      <c r="D11">
+        <v>170.00899999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>115.98099999999999</v>
+      </c>
+      <c r="D12">
+        <v>115.98099999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>85.498500000000007</v>
+      </c>
+      <c r="D13">
+        <v>85.498500000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>83.933000000000007</v>
+      </c>
+      <c r="D14">
+        <v>83.933000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>63.430900000000001</v>
+      </c>
+      <c r="D15">
+        <v>63.430900000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>49.177700000000002</v>
+      </c>
+      <c r="D16">
+        <v>49.177700000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>43.006599999999999</v>
+      </c>
+      <c r="D17">
+        <v>43.006599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>36.845199999999998</v>
+      </c>
+      <c r="D18">
+        <v>36.845199999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>33.007599999999996</v>
+      </c>
+      <c r="D19">
+        <v>33.007599999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>32.671399999999998</v>
+      </c>
+      <c r="D20">
+        <v>32.671399999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>30.8369</v>
+      </c>
+      <c r="D21">
+        <v>30.8369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>30.692699999999999</v>
+      </c>
+      <c r="D22">
+        <v>30.692699999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>25.535599999999999</v>
+      </c>
+      <c r="D23">
+        <v>25.535599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>24.716999999999999</v>
+      </c>
+      <c r="D24">
+        <v>24.716999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>23.018599999999999</v>
+      </c>
+      <c r="D25">
+        <v>23.018599999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>21.567399999999999</v>
+      </c>
+      <c r="D26">
+        <v>21.567399999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>19.753699999999998</v>
+      </c>
+      <c r="D27">
+        <v>19.753699999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>19.6814</v>
+      </c>
+      <c r="D28">
+        <v>19.6814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>19.652699999999999</v>
+      </c>
+      <c r="D29">
+        <v>19.652699999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>19.632899999999999</v>
+      </c>
+      <c r="D30">
+        <v>19.632899999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>19.149100000000001</v>
+      </c>
+      <c r="D31">
+        <v>19.149100000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>18.450600000000001</v>
+      </c>
+      <c r="D32">
+        <v>18.450600000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>16.399799999999999</v>
+      </c>
+      <c r="D33">
+        <v>16.399799999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>16.343699999999998</v>
+      </c>
+      <c r="D34">
+        <v>16.343699999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>14.6853</v>
+      </c>
+      <c r="D35">
+        <v>14.6853</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>13.562799999999999</v>
+      </c>
+      <c r="D36">
+        <v>13.562799999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>13.3568</v>
+      </c>
+      <c r="D37">
+        <v>13.3568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>13.2666</v>
+      </c>
+      <c r="D38">
+        <v>13.2666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>12.6731</v>
+      </c>
+      <c r="D39">
+        <v>12.6731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>11.0512</v>
+      </c>
+      <c r="D40">
+        <v>11.0512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>10.5444</v>
+      </c>
+      <c r="D41">
+        <v>10.5444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>10.3642</v>
+      </c>
+      <c r="D42">
+        <v>10.3642</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>10.1889</v>
+      </c>
+      <c r="D43">
+        <v>10.1889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>9.7787600000000001</v>
+      </c>
+      <c r="D44">
+        <v>9.7787600000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>9.1933799999999994</v>
+      </c>
+      <c r="D45">
+        <v>9.1933799999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>8.2059499999999996</v>
+      </c>
+      <c r="D46">
+        <v>8.2059499999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>6.6500399999999997</v>
+      </c>
+      <c r="D47">
+        <v>6.6500399999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>6.3058500000000004</v>
+      </c>
+      <c r="D48">
+        <v>6.3058500000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>6.2831999999999999</v>
+      </c>
+      <c r="D49">
+        <v>6.2831999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>6.1339100000000002</v>
+      </c>
+      <c r="D50">
+        <v>6.1339100000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>5.5268199999999998</v>
+      </c>
+      <c r="D51">
+        <v>5.5268199999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>5.47</v>
+      </c>
+      <c r="D52">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>5.1762300000000003</v>
+      </c>
+      <c r="D53">
+        <v>5.1762300000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>4.9396399999999998</v>
+      </c>
+      <c r="D54">
+        <v>4.9396399999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>4.90604</v>
+      </c>
+      <c r="D55">
+        <v>4.90604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>4.7458900000000002</v>
+      </c>
+      <c r="D56">
+        <v>4.7458900000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>4.7434200000000004</v>
+      </c>
+      <c r="D57">
+        <v>4.7434200000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>4.5675999999999997</v>
+      </c>
+      <c r="D58">
+        <v>4.5675999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>4.4105699999999999</v>
+      </c>
+      <c r="D59">
+        <v>4.4105699999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>3.8508800000000001</v>
+      </c>
+      <c r="D61">
+        <v>3.8508800000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>3.8136199999999998</v>
+      </c>
+      <c r="D62">
+        <v>3.8136199999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>3.4257300000000002</v>
+      </c>
+      <c r="D63">
+        <v>3.4257300000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>3.33812</v>
+      </c>
+      <c r="D64">
+        <v>3.33812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="D65">
+        <v>3.1150000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>3.097</v>
+      </c>
+      <c r="D66">
+        <v>3.097</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>3.08555</v>
+      </c>
+      <c r="D67">
+        <v>3.08555</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>2.8287499999999999</v>
+      </c>
+      <c r="D68">
+        <v>2.8287499999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>2.4076300000000002</v>
+      </c>
+      <c r="D69">
+        <v>2.4076300000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>2.282</v>
+      </c>
+      <c r="D70">
+        <v>2.282</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>2.1803400000000002</v>
+      </c>
+      <c r="D71">
+        <v>2.1803400000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>2.16689</v>
+      </c>
+      <c r="D72">
+        <v>2.16689</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>2.12</v>
+      </c>
+      <c r="D73">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>2.0329899999999999</v>
+      </c>
+      <c r="D74">
+        <v>2.0329899999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>1.7397199999999999</v>
+      </c>
+      <c r="D75">
+        <v>1.7397199999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>1.6</v>
+      </c>
+      <c r="D76">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>1.53732</v>
+      </c>
+      <c r="D77">
+        <v>1.53732</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>1.3994500000000001</v>
+      </c>
+      <c r="D78">
+        <v>1.3994500000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>1.33348</v>
+      </c>
+      <c r="D79">
+        <v>1.33348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>1.3288599999999999</v>
+      </c>
+      <c r="D80">
+        <v>1.3288599999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>1.3153699999999999</v>
+      </c>
+      <c r="D81">
+        <v>1.3153699999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>1.0078400000000001</v>
+      </c>
+      <c r="D82">
+        <v>1.0078400000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="D83">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>0.80930999999999997</v>
+      </c>
+      <c r="D84">
+        <v>0.80930999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>0.66</v>
+      </c>
+      <c r="D85">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>0.521424</v>
+      </c>
+      <c r="D86">
+        <v>0.521424</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>0.43209999999999998</v>
+      </c>
+      <c r="D87">
+        <v>0.43209999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>0.245256</v>
+      </c>
+      <c r="D88">
+        <v>0.245256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>0.18656200000000001</v>
+      </c>
+      <c r="D89">
+        <v>0.18656200000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>